--- a/Houses Dataset/Zipcode Demos.xlsx
+++ b/Houses Dataset/Zipcode Demos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cr205073\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{108E7B96-F092-45AC-99DA-9046B145A5BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E2ADE7-09FE-4BF3-8BF5-AFFD8E963132}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{AF8073E9-5E9B-4151-9B6B-CF86B965E842}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Zipcode</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Mean Income</t>
-  </si>
-  <si>
-    <t>Area Type</t>
   </si>
 </sst>
 </file>
@@ -432,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817614B4-0075-4AA3-A830-BAEBDC5F1EB8}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +447,7 @@
     <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,11 +493,8 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>81524</v>
       </c>
@@ -532,7 +526,7 @@
         <v>1.9</v>
       </c>
       <c r="K2">
-        <f>100-L2</f>
+        <f t="shared" ref="K2:K16" si="0">100-L2</f>
         <v>17.200000000000003</v>
       </c>
       <c r="L2">
@@ -548,7 +542,7 @@
         <v>121985</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>85255</v>
       </c>
@@ -580,7 +574,7 @@
         <v>5.4</v>
       </c>
       <c r="K3">
-        <f>100-L3</f>
+        <f t="shared" si="0"/>
         <v>2.2999999999999972</v>
       </c>
       <c r="L3">
@@ -596,7 +590,7 @@
         <v>168315</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>85266</v>
       </c>
@@ -628,7 +622,7 @@
         <v>3.7</v>
       </c>
       <c r="K4">
-        <f>100-L4</f>
+        <f t="shared" si="0"/>
         <v>1.7999999999999972</v>
       </c>
       <c r="L4">
@@ -644,7 +638,7 @@
         <v>151134</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>91901</v>
       </c>
@@ -676,7 +670,7 @@
         <v>1.8</v>
       </c>
       <c r="K5">
-        <f>100-L5</f>
+        <f t="shared" si="0"/>
         <v>8.9000000000000057</v>
       </c>
       <c r="L5">
@@ -692,7 +686,7 @@
         <v>97782</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>92021</v>
       </c>
@@ -724,7 +718,7 @@
         <v>2.5</v>
       </c>
       <c r="K6">
-        <f>100-L6</f>
+        <f t="shared" si="0"/>
         <v>15.599999999999994</v>
       </c>
       <c r="L6">
@@ -740,7 +734,7 @@
         <v>65900</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>92276</v>
       </c>
@@ -772,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <f>100-L7</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="L7">
@@ -788,7 +782,7 @@
         <v>52717</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>92677</v>
       </c>
@@ -820,7 +814,7 @@
         <v>9.1</v>
       </c>
       <c r="K8">
-        <f>100-L8</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="L8">
@@ -836,7 +830,7 @@
         <v>132382</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>92880</v>
       </c>
@@ -868,7 +862,7 @@
         <v>23.8</v>
       </c>
       <c r="K9">
-        <f>100-L9</f>
+        <f t="shared" si="0"/>
         <v>12.700000000000003</v>
       </c>
       <c r="L9">
@@ -884,7 +878,7 @@
         <v>105139</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>93111</v>
       </c>
@@ -916,7 +910,7 @@
         <v>6.1</v>
       </c>
       <c r="K10">
-        <f>100-L10</f>
+        <f t="shared" si="0"/>
         <v>9.4000000000000057</v>
       </c>
       <c r="L10">
@@ -932,7 +926,7 @@
         <v>127085</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>93446</v>
       </c>
@@ -964,7 +958,7 @@
         <v>1.6</v>
       </c>
       <c r="K11">
-        <f>100-L11</f>
+        <f t="shared" si="0"/>
         <v>12.200000000000003</v>
       </c>
       <c r="L11">
@@ -980,7 +974,7 @@
         <v>84736</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>93510</v>
       </c>
@@ -1012,7 +1006,7 @@
         <v>1.5</v>
       </c>
       <c r="K12">
-        <f>100-L12</f>
+        <f t="shared" si="0"/>
         <v>10.900000000000006</v>
       </c>
       <c r="L12">
@@ -1028,7 +1022,7 @@
         <v>107668</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>94501</v>
       </c>
@@ -1060,7 +1054,7 @@
         <v>27.6</v>
       </c>
       <c r="K13">
-        <f>100-L13</f>
+        <f t="shared" si="0"/>
         <v>9.9000000000000057</v>
       </c>
       <c r="L13">
@@ -1076,7 +1070,7 @@
         <v>103614</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>94531</v>
       </c>
@@ -1108,7 +1102,7 @@
         <v>14.9</v>
       </c>
       <c r="K14">
-        <f>100-L14</f>
+        <f t="shared" si="0"/>
         <v>8.5999999999999943</v>
       </c>
       <c r="L14">
@@ -1124,7 +1118,7 @@
         <v>101659</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>95220</v>
       </c>
@@ -1156,7 +1150,7 @@
         <v>0.8</v>
       </c>
       <c r="K15">
-        <f>100-L15</f>
+        <f t="shared" si="0"/>
         <v>19.900000000000006</v>
       </c>
       <c r="L15">
@@ -1172,7 +1166,7 @@
         <v>86448</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>96019</v>
       </c>
@@ -1204,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <f>100-L16</f>
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="L16">

--- a/Houses Dataset/Zipcode Demos.xlsx
+++ b/Houses Dataset/Zipcode Demos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cr205073\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Josh/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E2ADE7-09FE-4BF3-8BF5-AFFD8E963132}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBB3E26-FF47-1E4A-A48F-1103F923C1DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{AF8073E9-5E9B-4151-9B6B-CF86B965E842}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12820" xr2:uid="{AF8073E9-5E9B-4151-9B6B-CF86B965E842}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -432,22 +435,22 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>81524</v>
       </c>
@@ -502,38 +505,37 @@
         <v>1985</v>
       </c>
       <c r="C2">
-        <v>49.3</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="D2">
-        <v>50.7</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="E2">
         <v>46.8</v>
       </c>
       <c r="F2">
-        <v>13.2</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="G2">
-        <v>81.599999999999994</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.4</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="J2">
-        <v>1.9</v>
+        <v>1.9E-2</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K16" si="0">100-L2</f>
-        <v>17.200000000000003</v>
+        <v>0.17200000000000004</v>
       </c>
       <c r="L2">
-        <v>82.8</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="M2">
-        <v>22.3</v>
+        <v>0.223</v>
       </c>
       <c r="N2">
         <v>68125</v>
@@ -542,7 +544,7 @@
         <v>121985</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>85255</v>
       </c>
@@ -550,38 +552,37 @@
         <v>40151</v>
       </c>
       <c r="C3">
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>0.51</v>
       </c>
       <c r="E3">
         <v>48</v>
       </c>
       <c r="F3">
-        <v>5.0999999999999996</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="G3">
-        <v>86.5</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="H3">
-        <v>0.7</v>
+        <v>6.9999999999999993E-3</v>
       </c>
       <c r="I3">
-        <v>0.4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J3">
-        <v>5.4</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="K3">
-        <f t="shared" si="0"/>
-        <v>2.2999999999999972</v>
+        <v>2.2999999999999972E-2</v>
       </c>
       <c r="L3">
-        <v>97.7</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="M3">
-        <v>66.7</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="N3">
         <v>118618</v>
@@ -590,7 +591,7 @@
         <v>168315</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>85266</v>
       </c>
@@ -598,38 +599,37 @@
         <v>11715</v>
       </c>
       <c r="C4">
-        <v>49.3</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="D4">
-        <v>50.7</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="E4">
         <v>58</v>
       </c>
       <c r="F4">
-        <v>3.6</v>
+        <v>3.6000000000000004E-2</v>
       </c>
       <c r="G4">
-        <v>88.9</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="H4">
-        <v>1.3</v>
+        <v>1.3000000000000001E-2</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3.7</v>
+        <v>3.7000000000000005E-2</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
-        <v>1.7999999999999972</v>
+        <v>1.7999999999999971E-2</v>
       </c>
       <c r="L4">
-        <v>98.2</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="M4">
-        <v>62.2</v>
+        <v>0.622</v>
       </c>
       <c r="N4">
         <v>114513</v>
@@ -638,7 +638,7 @@
         <v>151134</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>91901</v>
       </c>
@@ -646,38 +646,37 @@
         <v>18586</v>
       </c>
       <c r="C5">
-        <v>48.6</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="D5">
-        <v>51.4</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="E5">
         <v>43.5</v>
       </c>
       <c r="F5">
-        <v>17.3</v>
+        <v>0.17300000000000001</v>
       </c>
       <c r="G5">
-        <v>75.8</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="H5">
-        <v>1.4</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="I5">
-        <v>1.3</v>
+        <v>1.3000000000000001E-2</v>
       </c>
       <c r="J5">
-        <v>1.8</v>
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
-        <v>8.9000000000000057</v>
+        <v>8.9000000000000051E-2</v>
       </c>
       <c r="L5">
-        <v>91.1</v>
+        <v>0.91099999999999992</v>
       </c>
       <c r="M5">
-        <v>29.1</v>
+        <v>0.29100000000000004</v>
       </c>
       <c r="N5">
         <v>81603</v>
@@ -686,7 +685,7 @@
         <v>97782</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>92021</v>
       </c>
@@ -694,38 +693,37 @@
         <v>69552</v>
       </c>
       <c r="C6">
-        <v>50.4</v>
+        <v>0.504</v>
       </c>
       <c r="D6">
-        <v>49.6</v>
+        <v>0.496</v>
       </c>
       <c r="E6">
         <v>35.200000000000003</v>
       </c>
       <c r="F6">
-        <v>28.4</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="G6">
-        <v>58.4</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="H6">
-        <v>4.8</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="I6">
-        <v>0.3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="J6">
-        <v>2.5</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
-        <v>15.599999999999994</v>
+        <v>0.15599999999999994</v>
       </c>
       <c r="L6">
-        <v>84.4</v>
+        <v>0.84400000000000008</v>
       </c>
       <c r="M6">
-        <v>17.399999999999999</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="N6">
         <v>48569</v>
@@ -734,7 +732,7 @@
         <v>65900</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>92276</v>
       </c>
@@ -742,38 +740,37 @@
         <v>7803</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>0.48</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>0.52</v>
       </c>
       <c r="E7">
         <v>45.9</v>
       </c>
       <c r="F7">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="G7">
-        <v>36.9</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="H7">
-        <v>1.7</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="I7">
-        <v>0.2</v>
+        <v>2E-3</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <v>0.22</v>
       </c>
       <c r="L7">
-        <v>78</v>
+        <v>0.78</v>
       </c>
       <c r="M7">
-        <v>15.5</v>
+        <v>0.155</v>
       </c>
       <c r="N7">
         <v>43308</v>
@@ -782,7 +779,7 @@
         <v>52717</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>92677</v>
       </c>
@@ -790,38 +787,37 @@
         <v>65645</v>
       </c>
       <c r="C8">
-        <v>48.5</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="D8">
-        <v>51.5</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="E8">
         <v>43.8</v>
       </c>
       <c r="F8">
-        <v>16.7</v>
+        <v>0.16699999999999998</v>
       </c>
       <c r="G8">
-        <v>67.900000000000006</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="H8">
-        <v>1.8</v>
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="I8">
-        <v>0.2</v>
+        <v>2E-3</v>
       </c>
       <c r="J8">
-        <v>9.1</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0.04</v>
       </c>
       <c r="L8">
-        <v>96</v>
+        <v>0.96</v>
       </c>
       <c r="M8">
-        <v>54.3</v>
+        <v>0.54299999999999993</v>
       </c>
       <c r="N8">
         <v>97059</v>
@@ -830,7 +826,7 @@
         <v>132382</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>92880</v>
       </c>
@@ -838,38 +834,37 @@
         <v>66557</v>
       </c>
       <c r="C9">
-        <v>49.1</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="D9">
-        <v>50.9</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="E9">
         <v>32.299999999999997</v>
       </c>
       <c r="F9">
-        <v>40.299999999999997</v>
+        <v>0.40299999999999997</v>
       </c>
       <c r="G9">
-        <v>24.1</v>
+        <v>0.24100000000000002</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I9">
-        <v>0.3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="J9">
-        <v>23.8</v>
+        <v>0.23800000000000002</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
-        <v>12.700000000000003</v>
+        <v>0.12700000000000003</v>
       </c>
       <c r="L9">
-        <v>87.3</v>
+        <v>0.873</v>
       </c>
       <c r="M9">
-        <v>32.5</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="N9">
         <v>97225</v>
@@ -878,7 +873,7 @@
         <v>105139</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>93111</v>
       </c>
@@ -886,38 +881,37 @@
         <v>18441</v>
       </c>
       <c r="C10">
-        <v>50.9</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="D10">
-        <v>49.1</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="E10">
         <v>42.9</v>
       </c>
       <c r="F10">
-        <v>25.7</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="G10">
-        <v>64.7</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="H10">
-        <v>1.4</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="I10">
-        <v>0.2</v>
+        <v>2E-3</v>
       </c>
       <c r="J10">
-        <v>6.1</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
-        <v>9.4000000000000057</v>
+        <v>9.4000000000000056E-2</v>
       </c>
       <c r="L10">
-        <v>90.6</v>
+        <v>0.90599999999999992</v>
       </c>
       <c r="M10">
-        <v>46.6</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="N10">
         <v>102644</v>
@@ -926,7 +920,7 @@
         <v>127085</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>93446</v>
       </c>
@@ -934,38 +928,37 @@
         <v>44515</v>
       </c>
       <c r="C11">
-        <v>49.1</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="D11">
-        <v>50.9</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="E11">
         <v>40</v>
       </c>
       <c r="F11">
-        <v>31.5</v>
+        <v>0.315</v>
       </c>
       <c r="G11">
-        <v>63.2</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="H11">
-        <v>1.8</v>
+        <v>1.8000000000000002E-2</v>
       </c>
       <c r="I11">
-        <v>0.3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="J11">
-        <v>1.6</v>
+        <v>1.6E-2</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
-        <v>12.200000000000003</v>
+        <v>0.12200000000000003</v>
       </c>
       <c r="L11">
-        <v>87.8</v>
+        <v>0.878</v>
       </c>
       <c r="M11">
-        <v>24.3</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="N11">
         <v>66242</v>
@@ -974,7 +967,7 @@
         <v>84736</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>93510</v>
       </c>
@@ -982,38 +975,37 @@
         <v>7594</v>
       </c>
       <c r="C12">
-        <v>52.7</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="D12">
-        <v>47.3</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="E12">
         <v>49.3</v>
       </c>
       <c r="F12">
-        <v>18.100000000000001</v>
+        <v>0.18100000000000002</v>
       </c>
       <c r="G12">
-        <v>75.3</v>
+        <v>0.753</v>
       </c>
       <c r="H12">
-        <v>2.4</v>
+        <v>2.4E-2</v>
       </c>
       <c r="I12">
-        <v>0.2</v>
+        <v>2E-3</v>
       </c>
       <c r="J12">
-        <v>1.5</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="K12">
-        <f t="shared" si="0"/>
-        <v>10.900000000000006</v>
+        <v>0.10900000000000006</v>
       </c>
       <c r="L12">
-        <v>89.1</v>
+        <v>0.8909999999999999</v>
       </c>
       <c r="M12">
-        <v>27.5</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="N12">
         <v>91196</v>
@@ -1022,7 +1014,7 @@
         <v>107668</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>94501</v>
       </c>
@@ -1030,38 +1022,37 @@
         <v>63228</v>
       </c>
       <c r="C13">
-        <v>49.2</v>
+        <v>0.49200000000000005</v>
       </c>
       <c r="D13">
-        <v>50.8</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="E13">
         <v>40.200000000000003</v>
       </c>
       <c r="F13">
-        <v>12.5</v>
+        <v>0.125</v>
       </c>
       <c r="G13">
-        <v>44.5</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="H13">
-        <v>8.4</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="I13">
-        <v>0.2</v>
+        <v>2E-3</v>
       </c>
       <c r="J13">
-        <v>27.6</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
-        <v>9.9000000000000057</v>
+        <v>9.900000000000006E-2</v>
       </c>
       <c r="L13">
-        <v>90.1</v>
+        <v>0.90099999999999991</v>
       </c>
       <c r="M13">
-        <v>48.2</v>
+        <v>0.48200000000000004</v>
       </c>
       <c r="N13">
         <v>76787</v>
@@ -1070,7 +1061,7 @@
         <v>103614</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>94531</v>
       </c>
@@ -1078,38 +1069,37 @@
         <v>44263</v>
       </c>
       <c r="C14">
-        <v>49.4</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="D14">
-        <v>50.6</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="E14">
         <v>34.200000000000003</v>
       </c>
       <c r="F14">
-        <v>25.8</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="G14">
-        <v>26.2</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="H14">
-        <v>24.4</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="I14">
-        <v>0.4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J14">
-        <v>14.9</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
-        <v>8.5999999999999943</v>
+        <v>8.5999999999999938E-2</v>
       </c>
       <c r="L14">
-        <v>91.4</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="M14">
-        <v>29.8</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="N14">
         <v>90126</v>
@@ -1118,7 +1108,7 @@
         <v>101659</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>95220</v>
       </c>
@@ -1126,38 +1116,37 @@
         <v>7371</v>
       </c>
       <c r="C15">
-        <v>50.3</v>
+        <v>0.503</v>
       </c>
       <c r="D15">
-        <v>49.7</v>
+        <v>0.49700000000000005</v>
       </c>
       <c r="E15">
         <v>44.3</v>
       </c>
       <c r="F15">
-        <v>31.7</v>
+        <v>0.317</v>
       </c>
       <c r="G15">
-        <v>64.7</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2</v>
+        <v>2E-3</v>
       </c>
       <c r="J15">
-        <v>0.8</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
-        <v>19.900000000000006</v>
+        <v>0.19900000000000007</v>
       </c>
       <c r="L15">
-        <v>80.099999999999994</v>
+        <v>0.80099999999999993</v>
       </c>
       <c r="M15">
-        <v>20.100000000000001</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="N15">
         <v>61486</v>
@@ -1166,7 +1155,7 @@
         <v>86448</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>96019</v>
       </c>
@@ -1174,38 +1163,37 @@
         <v>10121</v>
       </c>
       <c r="C16">
-        <v>49.8</v>
+        <v>0.498</v>
       </c>
       <c r="D16">
-        <v>50.2</v>
+        <v>0.502</v>
       </c>
       <c r="E16">
         <v>37.1</v>
       </c>
       <c r="F16">
-        <v>12.6</v>
+        <v>0.126</v>
       </c>
       <c r="G16">
-        <v>76.900000000000006</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="H16">
-        <v>1.3</v>
+        <v>1.3000000000000001E-2</v>
       </c>
       <c r="I16">
-        <v>1.7</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>0.125</v>
       </c>
       <c r="L16">
-        <v>87.5</v>
+        <v>0.875</v>
       </c>
       <c r="M16">
-        <v>13.5</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="N16">
         <v>46394</v>
@@ -1216,7 +1204,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M16" xr:uid="{6E75426E-B731-4CF0-A9CD-4FF23D85EC70}">
-    <sortState ref="A2:M16">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M16">
       <sortCondition ref="A1:A16"/>
     </sortState>
   </autoFilter>
